--- a/xlsx_checker/public/templates/lab1_template.xlsx
+++ b/xlsx_checker/public/templates/lab1_template.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,28 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>График функции y=sin(x)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y=sin(x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">График функции </t>
-  </si>
-  <si>
-    <t>y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Ф.И.О.</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Дата поступления</t>
+  </si>
+  <si>
+    <t>Оклад, руб</t>
+  </si>
+  <si>
+    <t>Премия</t>
+  </si>
+  <si>
+    <t>Подоходный налог</t>
+  </si>
+  <si>
+    <t>Сумма к выдаче, руб</t>
+  </si>
+  <si>
+    <t>Сумма к выдаче, $</t>
+  </si>
+  <si>
+    <t>Иванов И.М.</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>13.10.2007</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>23.02.2000</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>27.11.2017</t>
+  </si>
+  <si>
+    <t>Петров Г.Т.</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>05.03.2017</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>10.03.2017</t>
+  </si>
+  <si>
+    <t>Смирнов С.И.</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>15.12.2006</t>
+  </si>
+  <si>
+    <t>Соколова О.С.</t>
+  </si>
+  <si>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>01.05.2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс доллара: </t>
+  </si>
+  <si>
+    <t>Средняя зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Максимальная зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Минимальная зарплата, руб:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="DD/MM/YY" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -86,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,290 +496,218 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="17"/>
-    <col customWidth="1" max="2" min="2" width="17"/>
+    <col customWidth="1" max="1" min="1" width="5"/>
+    <col customWidth="1" max="2" min="2" width="28"/>
+    <col customWidth="1" max="3" min="3" width="16"/>
+    <col customWidth="1" max="4" min="4" width="18"/>
+    <col customWidth="1" max="5" min="5" width="18"/>
+    <col customWidth="1" max="6" min="6" width="18"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c s="1" r="A1" t="s">
+    <row r="2" spans="1:9">
+      <c s="1" r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c s="2" r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c s="2" r="A4" t="s">
         <v>1</v>
       </c>
-      <c s="2" r="B3" t="s">
+      <c s="2" r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c s="3" r="A4" t="n"/>
-      <c s="3" r="B4" t="n"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c s="3" r="A5" t="n"/>
-      <c s="3" r="B5" t="n"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c s="3" r="A6" t="n"/>
-      <c s="3" r="B6" t="n"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c s="3" r="A7" t="n"/>
-      <c s="3" r="B7" t="n"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c s="3" r="A8" t="n"/>
-      <c s="3" r="B8" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c s="3" r="A9" t="n"/>
-      <c s="3" r="B9" t="n"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c s="3" r="A10" t="n"/>
-      <c s="3" r="B10" t="n"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c s="3" r="A11" t="n"/>
-      <c s="3" r="B11" t="n"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c s="3" r="A12" t="n"/>
-      <c s="3" r="B12" t="n"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c s="3" r="A13" t="n"/>
-      <c s="3" r="B13" t="n"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c s="3" r="A14" t="n"/>
-      <c s="3" r="B14" t="n"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c s="3" r="A15" t="n"/>
-      <c s="3" r="B15" t="n"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c s="3" r="A16" t="n"/>
-      <c s="3" r="B16" t="n"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c s="3" r="A17" t="n"/>
-      <c s="3" r="B17" t="n"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c s="3" r="A18" t="n"/>
-      <c s="3" r="B18" t="n"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c s="3" r="A19" t="n"/>
-      <c s="3" r="B19" t="n"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c s="3" r="A20" t="n"/>
-      <c s="3" r="B20" t="n"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c s="3" r="A21" t="n"/>
-      <c s="3" r="B21" t="n"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c s="3" r="A22" t="n"/>
-      <c s="3" r="B22" t="n"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c s="3" r="A23" t="n"/>
-      <c s="3" r="B23" t="n"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c s="3" r="A24" t="n"/>
-      <c s="3" r="B24" t="n"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c s="3" r="A25" t="n"/>
-      <c s="3" r="B25" t="n"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c s="3" r="A26" t="n"/>
-      <c s="3" r="B26" t="n"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c s="3" r="A27" t="n"/>
-      <c s="3" r="B27" t="n"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c s="3" r="A28" t="n"/>
-      <c s="3" r="B28" t="n"/>
+      <c s="2" r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c s="2" r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c s="2" r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c s="3" r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c s="3" r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c s="3" r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c s="4" r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c s="3" r="E5" t="n"/>
+      <c s="3" r="F5" t="n"/>
+      <c s="3" r="G5" t="n"/>
+      <c s="3" r="H5" t="n"/>
+      <c s="3" r="I5" t="n"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c s="3" r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c s="3" r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c s="3" r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c s="4" r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c s="3" r="E6" t="n"/>
+      <c s="3" r="F6" t="n"/>
+      <c s="3" r="G6" t="n"/>
+      <c s="3" r="H6" t="n"/>
+      <c s="3" r="I6" t="n"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c s="3" r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c s="3" r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c s="3" r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c s="4" r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c s="3" r="E7" t="n"/>
+      <c s="3" r="F7" t="n"/>
+      <c s="3" r="G7" t="n"/>
+      <c s="3" r="H7" t="n"/>
+      <c s="3" r="I7" t="n"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c s="3" r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c s="3" r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c s="3" r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c s="4" r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c s="3" r="E8" t="n"/>
+      <c s="3" r="F8" t="n"/>
+      <c s="3" r="G8" t="n"/>
+      <c s="3" r="H8" t="n"/>
+      <c s="3" r="I8" t="n"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c s="3" r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c s="3" r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c s="3" r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c s="3" r="E9" t="n"/>
+      <c s="3" r="F9" t="n"/>
+      <c s="3" r="G9" t="n"/>
+      <c s="3" r="H9" t="n"/>
+      <c s="3" r="I9" t="n"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c s="3" r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c s="3" r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c s="3" r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c s="4" r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c s="3" r="E10" t="n"/>
+      <c s="3" r="F10" t="n"/>
+      <c s="3" r="G10" t="n"/>
+      <c s="3" r="H10" t="n"/>
+      <c s="3" r="I10" t="n"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c s="3" r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c s="3" r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c s="3" r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c s="4" r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c s="3" r="E11" t="n"/>
+      <c s="3" r="F11" t="n"/>
+      <c s="3" r="G11" t="n"/>
+      <c s="3" r="H11" t="n"/>
+      <c s="3" r="I11" t="n"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c s="3" r="G12" t="n"/>
+      <c s="3" r="H12" t="n"/>
+      <c s="3" r="I12" t="n"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c s="2" r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c s="2" r="C14" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c s="2" r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c s="2" r="C15" t="n"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c s="2" r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c s="2" r="C16" t="n"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c s="2" r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c s="2" r="C17" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="17"/>
-    <col customWidth="1" max="2" min="2" width="17"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" r="1" ht="22.5" spans="1:2">
-      <c s="1" r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" r="2" ht="22.5" spans="1:2"/>
-    <row r="3" spans="1:2">
-      <c s="2" r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c s="2" r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c s="3" r="A4" t="n"/>
-      <c s="3" r="B4" t="n"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c s="3" r="A5" t="n"/>
-      <c s="3" r="B5" t="n"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c s="3" r="A6" t="n"/>
-      <c s="3" r="B6" t="n"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c s="3" r="A7" t="n"/>
-      <c s="3" r="B7" t="n"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c s="3" r="A8" t="n"/>
-      <c s="3" r="B8" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c s="3" r="A9" t="n"/>
-      <c s="3" r="B9" t="n"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c s="3" r="A10" t="n"/>
-      <c s="3" r="B10" t="n"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c s="3" r="A11" t="n"/>
-      <c s="3" r="B11" t="n"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c s="3" r="A12" t="n"/>
-      <c s="3" r="B12" t="n"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c s="3" r="A13" t="n"/>
-      <c s="3" r="B13" t="n"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c s="3" r="A14" t="n"/>
-      <c s="3" r="B14" t="n"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c s="3" r="A15" t="n"/>
-      <c s="3" r="B15" t="n"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c s="3" r="A16" t="n"/>
-      <c s="3" r="B16" t="n"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c s="3" r="A17" t="n"/>
-      <c s="3" r="B17" t="n"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c s="3" r="A18" t="n"/>
-      <c s="3" r="B18" t="n"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c s="3" r="A19" t="n"/>
-      <c s="3" r="B19" t="n"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c s="3" r="A20" t="n"/>
-      <c s="3" r="B20" t="n"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c s="3" r="A21" t="n"/>
-      <c s="3" r="B21" t="n"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c s="3" r="A22" t="n"/>
-      <c s="3" r="B22" t="n"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c s="3" r="A23" t="n"/>
-      <c s="3" r="B23" t="n"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c s="3" r="A24" t="n"/>
-      <c s="3" r="B24" t="n"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c s="3" r="A25" t="n"/>
-      <c s="3" r="B25" t="n"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c s="3" r="A26" t="n"/>
-      <c s="3" r="B26" t="n"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c s="3" r="A27" t="n"/>
-      <c s="3" r="B27" t="n"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c s="3" r="A28" t="n"/>
-      <c s="3" r="B28" t="n"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c s="3" r="A29" t="n"/>
-      <c s="3" r="B29" t="n"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c s="3" r="A30" t="n"/>
-      <c s="3" r="B30" t="n"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c s="3" r="A31" t="n"/>
-      <c s="3" r="B31" t="n"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c s="3" r="A32" t="n"/>
-      <c s="3" r="B32" t="n"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c s="3" r="A33" t="n"/>
-      <c s="3" r="B33" t="n"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c s="3" r="A34" t="n"/>
-      <c s="3" r="B34" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx_checker/public/templates/lab1_template.xlsx
+++ b/xlsx_checker/public/templates/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -52,61 +52,40 @@
     <t>Директор</t>
   </si>
   <si>
-    <t>13.10.2007</t>
-  </si>
-  <si>
     <t>Коробова П.Н</t>
   </si>
   <si>
     <t>Менеджер</t>
   </si>
   <si>
-    <t>23.02.2000</t>
-  </si>
-  <si>
     <t>Морозов И.Р.</t>
   </si>
   <si>
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>27.11.2017</t>
-  </si>
-  <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
     <t>Зам. директора</t>
   </si>
   <si>
-    <t>05.03.2017</t>
-  </si>
-  <si>
     <t>Ромашова П.Т.</t>
   </si>
   <si>
     <t>Секетарь</t>
   </si>
   <si>
-    <t>10.03.2017</t>
-  </si>
-  <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
     <t>Водитель</t>
   </si>
   <si>
-    <t>15.12.2006</t>
-  </si>
-  <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
     <t>Строитель</t>
-  </si>
-  <si>
-    <t>01.05.2003</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -125,8 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="DD/MM/YY" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -188,7 +168,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,8 +531,8 @@
       <c s="3" r="C5" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="D5" t="s">
-        <v>12</v>
+      <c s="4" r="D5" t="n">
+        <v>41697</v>
       </c>
       <c s="3" r="E5" t="n"/>
       <c s="3" r="F5" t="n"/>
@@ -565,13 +545,13 @@
         <v>2</v>
       </c>
       <c s="3" r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c s="3" r="C6" t="s">
         <v>13</v>
       </c>
-      <c s="3" r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c s="4" r="D6" t="s">
-        <v>15</v>
+      <c s="4" r="D6" t="n">
+        <v>37468</v>
       </c>
       <c s="3" r="E6" t="n"/>
       <c s="3" r="F6" t="n"/>
@@ -584,13 +564,13 @@
         <v>3</v>
       </c>
       <c s="3" r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c s="3" r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c s="4" r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c s="4" r="D7" t="n">
+        <v>39527</v>
       </c>
       <c s="3" r="E7" t="n"/>
       <c s="3" r="F7" t="n"/>
@@ -603,13 +583,13 @@
         <v>4</v>
       </c>
       <c s="3" r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c s="3" r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c s="4" r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c s="4" r="D8" t="n">
+        <v>37097</v>
       </c>
       <c s="3" r="E8" t="n"/>
       <c s="3" r="F8" t="n"/>
@@ -622,13 +602,13 @@
         <v>5</v>
       </c>
       <c s="3" r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c s="3" r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c s="4" r="D9" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c s="4" r="D9" t="n">
+        <v>39044</v>
       </c>
       <c s="3" r="E9" t="n"/>
       <c s="3" r="F9" t="n"/>
@@ -641,13 +621,13 @@
         <v>6</v>
       </c>
       <c s="3" r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c s="3" r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c s="4" r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c s="4" r="D10" t="n">
+        <v>41428</v>
       </c>
       <c s="3" r="E10" t="n"/>
       <c s="3" r="F10" t="n"/>
@@ -660,13 +640,13 @@
         <v>7</v>
       </c>
       <c s="3" r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c s="3" r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c s="4" r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c s="4" r="D11" t="n">
+        <v>41334</v>
       </c>
       <c s="3" r="E11" t="n"/>
       <c s="3" r="F11" t="n"/>
@@ -681,7 +661,7 @@
     </row>
     <row r="14" spans="1:9">
       <c s="2" r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c s="2" r="C14" t="n">
         <v>48</v>
@@ -689,19 +669,19 @@
     </row>
     <row r="15" spans="1:9">
       <c s="2" r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c s="2" r="C15" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c s="2" r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c s="2" r="C16" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c s="2" r="B17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c s="2" r="C17" t="n"/>
     </row>

--- a/xlsx_checker/public/templates/lab1_template.xlsx
+++ b/xlsx_checker/public/templates/lab1_template.xlsx
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c s="4" r="D5" t="n">
-        <v>41697</v>
+        <v>37403</v>
       </c>
       <c s="3" r="E5" t="n"/>
       <c s="3" r="F5" t="n"/>
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
       <c s="4" r="D6" t="n">
-        <v>37468</v>
+        <v>36570</v>
       </c>
       <c s="3" r="E6" t="n"/>
       <c s="3" r="F6" t="n"/>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c s="4" r="D7" t="n">
-        <v>39527</v>
+        <v>42862</v>
       </c>
       <c s="3" r="E7" t="n"/>
       <c s="3" r="F7" t="n"/>
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c s="4" r="D8" t="n">
-        <v>37097</v>
+        <v>41810</v>
       </c>
       <c s="3" r="E8" t="n"/>
       <c s="3" r="F8" t="n"/>
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c s="4" r="D9" t="n">
-        <v>39044</v>
+        <v>38443</v>
       </c>
       <c s="3" r="E9" t="n"/>
       <c s="3" r="F9" t="n"/>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c s="4" r="D10" t="n">
-        <v>41428</v>
+        <v>41378</v>
       </c>
       <c s="3" r="E10" t="n"/>
       <c s="3" r="F10" t="n"/>
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c s="4" r="D11" t="n">
-        <v>41334</v>
+        <v>39211</v>
       </c>
       <c s="3" r="E11" t="n"/>
       <c s="3" r="F11" t="n"/>

--- a/xlsx_checker/public/templates/lab1_template.xlsx
+++ b/xlsx_checker/public/templates/lab1_template.xlsx
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c s="4" r="D5" t="n">
-        <v>37403</v>
+        <v>39379</v>
       </c>
       <c s="3" r="E5" t="n"/>
       <c s="3" r="F5" t="n"/>
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
       <c s="4" r="D6" t="n">
-        <v>36570</v>
+        <v>42752</v>
       </c>
       <c s="3" r="E6" t="n"/>
       <c s="3" r="F6" t="n"/>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c s="4" r="D7" t="n">
-        <v>42862</v>
+        <v>42013</v>
       </c>
       <c s="3" r="E7" t="n"/>
       <c s="3" r="F7" t="n"/>
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c s="4" r="D8" t="n">
-        <v>41810</v>
+        <v>38728</v>
       </c>
       <c s="3" r="E8" t="n"/>
       <c s="3" r="F8" t="n"/>
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c s="4" r="D9" t="n">
-        <v>38443</v>
+        <v>38121</v>
       </c>
       <c s="3" r="E9" t="n"/>
       <c s="3" r="F9" t="n"/>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c s="4" r="D10" t="n">
-        <v>41378</v>
+        <v>37333</v>
       </c>
       <c s="3" r="E10" t="n"/>
       <c s="3" r="F10" t="n"/>
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c s="4" r="D11" t="n">
-        <v>39211</v>
+        <v>42109</v>
       </c>
       <c s="3" r="E11" t="n"/>
       <c s="3" r="F11" t="n"/>

--- a/xlsx_checker/public/templates/lab1_template.xlsx
+++ b/xlsx_checker/public/templates/lab1_template.xlsx
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c s="4" r="D5" t="n">
-        <v>39379</v>
+        <v>42102</v>
       </c>
       <c s="3" r="E5" t="n"/>
       <c s="3" r="F5" t="n"/>
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
       <c s="4" r="D6" t="n">
-        <v>42752</v>
+        <v>37313</v>
       </c>
       <c s="3" r="E6" t="n"/>
       <c s="3" r="F6" t="n"/>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c s="4" r="D7" t="n">
-        <v>42013</v>
+        <v>42075</v>
       </c>
       <c s="3" r="E7" t="n"/>
       <c s="3" r="F7" t="n"/>
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c s="4" r="D8" t="n">
-        <v>38728</v>
+        <v>42881</v>
       </c>
       <c s="3" r="E8" t="n"/>
       <c s="3" r="F8" t="n"/>
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c s="4" r="D9" t="n">
-        <v>38121</v>
+        <v>37403</v>
       </c>
       <c s="3" r="E9" t="n"/>
       <c s="3" r="F9" t="n"/>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c s="4" r="D10" t="n">
-        <v>37333</v>
+        <v>38674</v>
       </c>
       <c s="3" r="E10" t="n"/>
       <c s="3" r="F10" t="n"/>
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c s="4" r="D11" t="n">
-        <v>42109</v>
+        <v>38949</v>
       </c>
       <c s="3" r="E11" t="n"/>
       <c s="3" r="F11" t="n"/>
